--- a/data/Variable_Definitions.xlsx
+++ b/data/Variable_Definitions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>ctuniq</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>varFullDefinition</t>
+  </si>
+  <si>
+    <t>showPercentage</t>
   </si>
 </sst>
 </file>
@@ -569,19 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="84.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -589,200 +593,209 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/Variable_Definitions.xlsx
+++ b/data/Variable_Definitions.xlsx
@@ -603,6 +603,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,6 +614,9 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,6 +625,9 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -627,6 +636,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -638,6 +650,9 @@
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,6 +692,9 @@
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
@@ -688,6 +706,9 @@
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -699,6 +720,9 @@
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -710,6 +734,9 @@
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -721,6 +748,9 @@
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
@@ -732,6 +762,9 @@
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
@@ -743,6 +776,9 @@
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
@@ -754,6 +790,9 @@
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
@@ -765,6 +804,9 @@
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
@@ -776,6 +818,9 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
@@ -787,6 +832,9 @@
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
@@ -794,6 +842,9 @@
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>

--- a/data/Variable_Definitions.xlsx
+++ b/data/Variable_Definitions.xlsx
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -777,7 +777,7 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
@@ -791,7 +791,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
@@ -805,7 +805,7 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
@@ -833,7 +833,7 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
